--- a/test_data/test_data_11.xlsx
+++ b/test_data/test_data_11.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1519,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1616,7 +1616,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -1696,7 +1696,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -1712,7 +1712,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -1728,7 +1728,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -1744,7 +1744,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -1760,7 +1760,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -1768,7 +1768,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -1864,7 +1864,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -1880,7 +1880,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
@@ -1888,7 +1888,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -1920,7 +1920,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -1928,7 +1928,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -1984,7 +1984,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -2038,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2327,7 +2327,7 @@
         <v>94</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -2660,8 +2660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2709,7 +2709,7 @@
         <v>138</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -2717,7 +2717,7 @@
         <v>139</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -2725,7 +2725,7 @@
         <v>140</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -3029,7 +3029,7 @@
         <v>178</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -3037,7 +3037,7 @@
         <v>179</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
@@ -3045,7 +3045,7 @@
         <v>180</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -3061,7 +3061,7 @@
         <v>182</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -3069,7 +3069,7 @@
         <v>183</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -3109,7 +3109,7 @@
         <v>188</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
@@ -3117,7 +3117,7 @@
         <v>189</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
@@ -3125,7 +3125,7 @@
         <v>190</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -3237,7 +3237,7 @@
         <v>204</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -3765,7 +3765,7 @@
         <v>267</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
@@ -3818,7 +3818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -4000,8 +4000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4225,7 +4225,7 @@
         <v>317</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
